--- a/Code/Results/Cases/Case_0_130/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_130/res_line/loading_percent.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>11.66254512136144</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>22.34448744111787</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.13618087874647</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>174.9662548410585</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>4.415921712667725</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>19.12160206966754</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.649282490006036</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.99769123883691</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>11.74147434436582</v>
+      </c>
+      <c r="D3">
+        <v>22.27428774284522</v>
+      </c>
+      <c r="E3">
+        <v>10.18402179826304</v>
+      </c>
+      <c r="F3">
+        <v>174.9280368590472</v>
+      </c>
+      <c r="G3">
+        <v>4.44319306081066</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>19.23698761066109</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>7.661108377490043</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>18.40031508502705</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>11.79275934362639</v>
+      </c>
+      <c r="D4">
+        <v>22.24258562296486</v>
+      </c>
+      <c r="E4">
+        <v>10.21449137674484</v>
+      </c>
+      <c r="F4">
+        <v>174.9852267018453</v>
+      </c>
+      <c r="G4">
+        <v>4.460508550914789</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>19.3133744469983</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>7.668939944485199</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>18.02485520896364</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>11.8143709701345</v>
+      </c>
+      <c r="D5">
+        <v>22.23246126444579</v>
+      </c>
+      <c r="E5">
+        <v>10.22719013640021</v>
+      </c>
+      <c r="F5">
+        <v>175.0283150049611</v>
+      </c>
+      <c r="G5">
+        <v>4.467712795968744</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>19.34588776704225</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>7.672274286151408</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.86990355188116</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>11.81800268751775</v>
+      </c>
+      <c r="D6">
+        <v>22.23094679594564</v>
+      </c>
+      <c r="E6">
+        <v>10.229315989409</v>
+      </c>
+      <c r="F6">
+        <v>175.0366502734234</v>
+      </c>
+      <c r="G6">
+        <v>4.468918123996505</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>19.3513700161206</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>7.672836568635698</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.84406337566597</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>11.79304791650317</v>
+      </c>
+      <c r="D7">
+        <v>22.2424378626951</v>
+      </c>
+      <c r="E7">
+        <v>10.21466148547224</v>
+      </c>
+      <c r="F7">
+        <v>174.9857283550656</v>
+      </c>
+      <c r="G7">
+        <v>4.460605104674646</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>19.31380733480916</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>7.668984334567947</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>18.02277304766463</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>11.68917594757568</v>
+      </c>
+      <c r="D8">
+        <v>22.31787267871371</v>
+      </c>
+      <c r="E8">
+        <v>10.15245336016354</v>
+      </c>
+      <c r="F8">
+        <v>174.9360331438203</v>
+      </c>
+      <c r="G8">
+        <v>4.425209213700438</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>19.16023224699305</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7.653241329819798</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>18.79364780656866</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>11.50774295388877</v>
+      </c>
+      <c r="D9">
+        <v>22.55955049512865</v>
+      </c>
+      <c r="E9">
+        <v>10.03882411757268</v>
+      </c>
+      <c r="F9">
+        <v>175.5016999555376</v>
+      </c>
+      <c r="G9">
+        <v>4.360107908679837</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>18.90342467914927</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7.626922533483588</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>20.2273683202997</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>11.38782890154695</v>
+      </c>
+      <c r="D10">
+        <v>22.79891267306067</v>
+      </c>
+      <c r="E10">
+        <v>9.959945406790583</v>
+      </c>
+      <c r="F10">
+        <v>176.3548742130374</v>
+      </c>
+      <c r="G10">
+        <v>4.314575556939809</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>18.7424093081481</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>7.610405673988906</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>21.22223697909767</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>11.33614321167738</v>
+      </c>
+      <c r="D11">
+        <v>22.92227645374672</v>
+      </c>
+      <c r="E11">
+        <v>9.92494167427221</v>
+      </c>
+      <c r="F11">
+        <v>176.8457279454533</v>
+      </c>
+      <c r="G11">
+        <v>4.294279864777628</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>18.67532653254526</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>7.603515740145279</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>21.66018057919901</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>11.31697981231544</v>
+      </c>
+      <c r="D12">
+        <v>22.97116418697725</v>
+      </c>
+      <c r="E12">
+        <v>9.911802118500772</v>
+      </c>
+      <c r="F12">
+        <v>177.0470544120421</v>
+      </c>
+      <c r="G12">
+        <v>4.286647001386176</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>18.65082601590784</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>7.600997562091492</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>21.82377585681918</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>11.3210888570808</v>
+      </c>
+      <c r="D13">
+        <v>22.96053720812968</v>
+      </c>
+      <c r="E13">
+        <v>9.914626997511975</v>
+      </c>
+      <c r="F13">
+        <v>177.0029967214775</v>
+      </c>
+      <c r="G13">
+        <v>4.2882886565987</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>18.65606223787257</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>7.601535833385839</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>21.78864458690801</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>11.3345584504057</v>
+      </c>
+      <c r="D14">
+        <v>22.92625439587877</v>
+      </c>
+      <c r="E14">
+        <v>9.923858423458523</v>
+      </c>
+      <c r="F14">
+        <v>176.8619775027108</v>
+      </c>
+      <c r="G14">
+        <v>4.293650893304757</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>18.67329267945275</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>7.603306739026854</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>21.67368539489599</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>11.34286212106642</v>
+      </c>
+      <c r="D15">
+        <v>22.90554090257646</v>
+      </c>
+      <c r="E15">
+        <v>9.92952765683118</v>
+      </c>
+      <c r="F15">
+        <v>176.7776321512246</v>
+      </c>
+      <c r="G15">
+        <v>4.296942048555175</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>18.68396482976504</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>7.604403345169801</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>21.60297336126115</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>11.39126405756924</v>
+      </c>
+      <c r="D16">
+        <v>22.79114951006624</v>
+      </c>
+      <c r="E16">
+        <v>9.962249766534359</v>
+      </c>
+      <c r="F16">
+        <v>176.3249200497959</v>
+      </c>
+      <c r="G16">
+        <v>4.315909713654252</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>18.74691867684437</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7.610868596665266</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>21.19330956972086</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>11.42168847014306</v>
+      </c>
+      <c r="D17">
+        <v>22.72474491263209</v>
+      </c>
+      <c r="E17">
+        <v>9.982541409828626</v>
+      </c>
+      <c r="F17">
+        <v>176.0739784520584</v>
+      </c>
+      <c r="G17">
+        <v>4.32764762739601</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>18.78712829282868</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>7.614995363733746</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>20.93814219015166</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>11.43945752215283</v>
+      </c>
+      <c r="D18">
+        <v>22.68790765249877</v>
+      </c>
+      <c r="E18">
+        <v>9.994296021473678</v>
+      </c>
+      <c r="F18">
+        <v>175.9392710521813</v>
+      </c>
+      <c r="G18">
+        <v>4.334438711491052</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>18.81083492006395</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>7.617427592062061</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>20.79000725568141</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>11.44552023482171</v>
+      </c>
+      <c r="D19">
+        <v>22.67566555752363</v>
+      </c>
+      <c r="E19">
+        <v>9.998290565697731</v>
+      </c>
+      <c r="F19">
+        <v>175.895295052492</v>
+      </c>
+      <c r="G19">
+        <v>4.33674509410771</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>18.81896058632663</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>7.618261136856709</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>20.73962067985785</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>11.41842184435615</v>
+      </c>
+      <c r="D20">
+        <v>22.7316727198171</v>
+      </c>
+      <c r="E20">
+        <v>9.980372773375727</v>
+      </c>
+      <c r="F20">
+        <v>176.0996904308425</v>
+      </c>
+      <c r="G20">
+        <v>4.326394043609054</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>18.78278786457793</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>7.614549987053741</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>20.96544799483449</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>11.3305910320493</v>
+      </c>
+      <c r="D21">
+        <v>22.93626437514973</v>
+      </c>
+      <c r="E21">
+        <v>9.921143883183033</v>
+      </c>
+      <c r="F21">
+        <v>176.9029733204376</v>
+      </c>
+      <c r="G21">
+        <v>4.292074506709488</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>18.66820705736382</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>7.602784103915415</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>21.70751365554064</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>11.27557020867209</v>
+      </c>
+      <c r="D22">
+        <v>23.0826865515002</v>
+      </c>
+      <c r="E22">
+        <v>9.883102441003878</v>
+      </c>
+      <c r="F22">
+        <v>177.5183718366488</v>
+      </c>
+      <c r="G22">
+        <v>4.269947803972343</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>18.59858981973098</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>7.595624883300363</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>22.17935961385674</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>11.30471892036642</v>
+      </c>
+      <c r="D23">
+        <v>23.00334381342782</v>
+      </c>
+      <c r="E23">
+        <v>9.903348564578405</v>
+      </c>
+      <c r="F23">
+        <v>177.181414248826</v>
+      </c>
+      <c r="G23">
+        <v>4.281732117890022</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>18.63525806752339</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>7.599396912608324</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>21.92877110911181</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>11.41989782082679</v>
+      </c>
+      <c r="D24">
+        <v>22.72853649234009</v>
+      </c>
+      <c r="E24">
+        <v>9.981352936911934</v>
+      </c>
+      <c r="F24">
+        <v>176.0880363115508</v>
+      </c>
+      <c r="G24">
+        <v>4.326960654978501</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>18.78474833694852</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>7.614751156003435</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>20.95310750188673</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>11.55446144113258</v>
+      </c>
+      <c r="D25">
+        <v>22.48366100736944</v>
+      </c>
+      <c r="E25">
+        <v>10.06871733036977</v>
+      </c>
+      <c r="F25">
+        <v>175.2743259714926</v>
+      </c>
+      <c r="G25">
+        <v>4.377290582680057</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>18.96808986947141</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>7.633550875730008</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>19.84905939529497</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
